--- a/config_1.19/activity_exchange_server.xlsx
+++ b/config_1.19/activity_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="215">
   <si>
     <t>id|</t>
   </si>
@@ -1104,6 +1104,42 @@
   </si>
   <si>
     <t>5000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂欢庆典</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂欢庆典-cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在狂欢庆典活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在狂欢庆典活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂欢庆典</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚果大礼包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>高档电热水袋</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生酥1斤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1261,7 +1297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1357,14 +1393,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -1380,6 +1410,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1662,7 +1699,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2250,83 +2287,125 @@
       <c r="O17" s="28"/>
       <c r="P17" s="28"/>
     </row>
-    <row r="18" spans="1:16" s="36" customFormat="1">
-      <c r="A18" s="21">
+    <row r="18" spans="1:16" s="43" customFormat="1">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="42">
         <v>1610409600</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="42">
         <v>1610985599</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="H18" s="21">
-        <v>1</v>
-      </c>
-      <c r="I18" s="21">
+      <c r="H18" s="8">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8">
         <v>17</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J18" s="16">
         <v>17</v>
       </c>
-      <c r="K18" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="30" customFormat="1">
-      <c r="A19" s="21">
+      <c r="K18" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="27" customFormat="1">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="8">
         <v>1610409600</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="8">
         <v>1610985599</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="25" t="s">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="H19" s="21">
-        <v>1</v>
-      </c>
-      <c r="I19" s="21">
+      <c r="H19" s="8">
+        <v>1</v>
+      </c>
+      <c r="I19" s="8">
         <v>18</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="16">
         <v>18</v>
       </c>
-      <c r="K19" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="1"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" ht="16.5">
-      <c r="A21" s="1"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
+      <c r="K19" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="35" customFormat="1">
+      <c r="A20" s="21">
+        <v>19</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" s="21">
+        <v>1610409600</v>
+      </c>
+      <c r="D20" s="21">
+        <v>1610985599</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="H20" s="21">
+        <v>1</v>
+      </c>
+      <c r="I20" s="21">
+        <v>19</v>
+      </c>
+      <c r="J20" s="36">
+        <v>19</v>
+      </c>
+      <c r="K20" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="30" customFormat="1">
+      <c r="A21" s="21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="21">
+        <v>1610409600</v>
+      </c>
+      <c r="D21" s="21">
+        <v>1610985599</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="H21" s="21">
+        <v>1</v>
+      </c>
+      <c r="I21" s="21">
+        <v>20</v>
+      </c>
+      <c r="J21" s="36">
+        <v>20</v>
+      </c>
+      <c r="K21" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:16" ht="16.5">
       <c r="A22" s="1"/>
@@ -2431,10 +2510,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2611,10 +2690,10 @@
       <c r="C14" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="1:7" s="8" customFormat="1">
       <c r="A15" s="8">
@@ -2637,10 +2716,10 @@
       <c r="C16" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:3" s="8" customFormat="1">
       <c r="A17" s="8">
@@ -2653,26 +2732,48 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="40">
+    <row r="18" spans="1:3" s="8" customFormat="1">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="26" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="40">
+    <row r="19" spans="1:3" s="8" customFormat="1">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="26" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="38">
+        <v>19</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="38">
+        <v>20</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2688,10 +2789,10 @@
   <dimension ref="A1:M179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E143" sqref="E143:E144"/>
+      <selection pane="bottomRight" activeCell="F153" sqref="F153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5514,7 +5615,7 @@
         <v>131</v>
       </c>
       <c r="E110" s="31"/>
-      <c r="F110" s="42" t="s">
+      <c r="F110" s="40" t="s">
         <v>182</v>
       </c>
       <c r="G110" s="33" t="s">
@@ -5541,7 +5642,7 @@
         <v>131</v>
       </c>
       <c r="E111" s="31"/>
-      <c r="F111" s="42" t="s">
+      <c r="F111" s="40" t="s">
         <v>183</v>
       </c>
       <c r="G111" s="33" t="s">
@@ -5595,7 +5696,7 @@
         <v>131</v>
       </c>
       <c r="E113" s="31"/>
-      <c r="F113" s="42" t="s">
+      <c r="F113" s="40" t="s">
         <v>184</v>
       </c>
       <c r="G113" s="33" t="s">
@@ -5933,7 +6034,7 @@
         <v>131</v>
       </c>
       <c r="E126" s="19"/>
-      <c r="F126" s="43" t="s">
+      <c r="F126" s="41" t="s">
         <v>182</v>
       </c>
       <c r="G126" s="20" t="s">
@@ -5961,7 +6062,7 @@
         <v>131</v>
       </c>
       <c r="E127" s="19"/>
-      <c r="F127" s="43" t="s">
+      <c r="F127" s="41" t="s">
         <v>183</v>
       </c>
       <c r="G127" s="20" t="s">
@@ -6017,7 +6118,7 @@
         <v>131</v>
       </c>
       <c r="E129" s="19"/>
-      <c r="F129" s="43" t="s">
+      <c r="F129" s="41" t="s">
         <v>184</v>
       </c>
       <c r="G129" s="20" t="s">
@@ -6248,164 +6349,436 @@
       </c>
     </row>
     <row r="138" spans="1:10" s="8" customFormat="1">
-      <c r="A138" s="9"/>
-      <c r="B138" s="12"/>
-      <c r="C138" s="12"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="12"/>
-      <c r="F138" s="14"/>
-      <c r="G138" s="14"/>
-      <c r="H138" s="12"/>
+      <c r="A138" s="8">
+        <v>137</v>
+      </c>
+      <c r="B138" s="19">
+        <v>19</v>
+      </c>
+      <c r="C138" s="19">
+        <v>1</v>
+      </c>
+      <c r="D138" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E138" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F138" s="20"/>
+      <c r="G138" s="20"/>
+      <c r="H138" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="I138" s="17"/>
+      <c r="J138" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="139" spans="1:10" s="8" customFormat="1">
-      <c r="A139" s="9"/>
-      <c r="B139" s="12"/>
-      <c r="C139" s="12"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="12"/>
-      <c r="F139" s="14"/>
-      <c r="G139" s="14"/>
-      <c r="H139" s="12"/>
+      <c r="A139" s="8">
+        <v>138</v>
+      </c>
+      <c r="B139" s="19">
+        <v>19</v>
+      </c>
+      <c r="C139" s="19">
+        <v>2</v>
+      </c>
+      <c r="D139" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E139" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="F139" s="20"/>
+      <c r="G139" s="20"/>
+      <c r="H139" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I139" s="17"/>
+      <c r="J139" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="140" spans="1:10" s="8" customFormat="1">
-      <c r="A140" s="9"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="12"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="14"/>
-      <c r="G140" s="14"/>
-      <c r="H140" s="12"/>
+      <c r="A140" s="8">
+        <v>139</v>
+      </c>
+      <c r="B140" s="19">
+        <v>19</v>
+      </c>
+      <c r="C140" s="19">
+        <v>3</v>
+      </c>
+      <c r="D140" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E140" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="F140" s="17"/>
+      <c r="G140" s="20"/>
+      <c r="H140" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I140" s="17"/>
+      <c r="J140" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="141" spans="1:10" s="8" customFormat="1">
-      <c r="A141" s="9"/>
-      <c r="B141" s="12"/>
-      <c r="C141" s="12"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="12"/>
-      <c r="F141" s="14"/>
-      <c r="G141" s="14"/>
-      <c r="H141" s="12"/>
-    </row>
-    <row r="142" spans="1:10" s="8" customFormat="1">
-      <c r="A142" s="9"/>
-      <c r="B142" s="12"/>
-      <c r="C142" s="12"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="12"/>
-      <c r="F142" s="14"/>
-      <c r="G142" s="14"/>
-      <c r="H142" s="12"/>
-    </row>
-    <row r="143" spans="1:10" s="8" customFormat="1">
-      <c r="A143" s="9"/>
-      <c r="B143" s="12"/>
-      <c r="C143" s="12"/>
-      <c r="D143" s="9"/>
-      <c r="E143" s="12"/>
-      <c r="F143" s="14"/>
-      <c r="G143" s="14"/>
-      <c r="H143" s="12"/>
+      <c r="A141" s="8">
+        <v>140</v>
+      </c>
+      <c r="B141" s="19">
+        <v>19</v>
+      </c>
+      <c r="C141" s="19">
+        <v>4</v>
+      </c>
+      <c r="D141" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E141" s="19"/>
+      <c r="F141" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G141" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H141" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I141" s="17"/>
+      <c r="J141" s="17"/>
+    </row>
+    <row r="142" spans="1:10" s="8" customFormat="1" ht="16.5">
+      <c r="A142" s="8">
+        <v>141</v>
+      </c>
+      <c r="B142" s="19">
+        <v>19</v>
+      </c>
+      <c r="C142" s="19">
+        <v>5</v>
+      </c>
+      <c r="D142" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E142" s="19"/>
+      <c r="F142" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="G142" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H142" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I142" s="17"/>
+      <c r="J142" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" s="8" customFormat="1" ht="16.5">
+      <c r="A143" s="8">
+        <v>142</v>
+      </c>
+      <c r="B143" s="19">
+        <v>19</v>
+      </c>
+      <c r="C143" s="19">
+        <v>6</v>
+      </c>
+      <c r="D143" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E143" s="19"/>
+      <c r="F143" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="G143" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H143" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I143" s="17"/>
+      <c r="J143" s="17">
+        <v>2</v>
+      </c>
     </row>
     <row r="144" spans="1:10" s="8" customFormat="1">
-      <c r="A144" s="9"/>
-      <c r="B144" s="12"/>
-      <c r="C144" s="12"/>
-      <c r="D144" s="9"/>
-      <c r="E144" s="12"/>
-      <c r="F144" s="14"/>
-      <c r="G144" s="14"/>
-      <c r="H144" s="12"/>
-    </row>
-    <row r="145" spans="1:12" s="8" customFormat="1">
-      <c r="A145" s="9"/>
-      <c r="B145" s="12"/>
-      <c r="C145" s="12"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="12"/>
-      <c r="F145" s="14"/>
-      <c r="G145" s="14"/>
-      <c r="H145" s="12"/>
-    </row>
-    <row r="146" spans="1:12">
-      <c r="A146" s="9"/>
-      <c r="B146" s="12"/>
-      <c r="C146" s="12"/>
-      <c r="D146" s="9"/>
-      <c r="E146" s="12"/>
-      <c r="F146" s="14"/>
-      <c r="G146" s="14"/>
-      <c r="H146" s="12"/>
-    </row>
-    <row r="147" spans="1:12">
-      <c r="A147" s="9"/>
-      <c r="B147" s="12"/>
-      <c r="C147" s="12"/>
-      <c r="D147" s="9"/>
-      <c r="E147" s="12"/>
-      <c r="F147" s="14"/>
-      <c r="G147" s="14"/>
-      <c r="H147" s="12"/>
-    </row>
-    <row r="148" spans="1:12">
-      <c r="A148" s="9"/>
-      <c r="B148" s="12"/>
-      <c r="C148" s="12"/>
-      <c r="D148" s="9"/>
-      <c r="E148" s="12"/>
-      <c r="F148" s="14"/>
-      <c r="G148" s="14"/>
-      <c r="H148" s="12"/>
-    </row>
-    <row r="149" spans="1:12">
-      <c r="A149" s="9"/>
-      <c r="B149" s="12"/>
-      <c r="C149" s="12"/>
-      <c r="D149" s="9"/>
-      <c r="E149" s="12"/>
-      <c r="F149" s="14"/>
-      <c r="G149" s="14"/>
-      <c r="H149" s="12"/>
-    </row>
-    <row r="150" spans="1:12">
-      <c r="A150" s="9"/>
-      <c r="B150" s="12"/>
-      <c r="C150" s="12"/>
-      <c r="D150" s="9"/>
-      <c r="E150" s="12"/>
-      <c r="F150" s="14"/>
-      <c r="G150" s="14"/>
-      <c r="H150" s="12"/>
-    </row>
-    <row r="151" spans="1:12">
-      <c r="A151" s="9"/>
-      <c r="B151" s="12"/>
-      <c r="C151" s="12"/>
-      <c r="D151" s="9"/>
-      <c r="E151" s="12"/>
-      <c r="F151" s="14"/>
-      <c r="G151" s="14"/>
-      <c r="H151" s="12"/>
-    </row>
-    <row r="152" spans="1:12">
-      <c r="A152" s="9"/>
-      <c r="B152" s="12"/>
-      <c r="C152" s="12"/>
-      <c r="D152" s="9"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="14"/>
-      <c r="G152" s="14"/>
-      <c r="H152" s="12"/>
-    </row>
-    <row r="153" spans="1:12">
-      <c r="A153" s="9"/>
-      <c r="B153" s="12"/>
-      <c r="C153" s="12"/>
-      <c r="D153" s="9"/>
-      <c r="E153" s="12"/>
-      <c r="F153" s="14"/>
-      <c r="G153" s="14"/>
-      <c r="H153" s="12"/>
+      <c r="A144" s="8">
+        <v>143</v>
+      </c>
+      <c r="B144" s="19">
+        <v>19</v>
+      </c>
+      <c r="C144" s="19">
+        <v>7</v>
+      </c>
+      <c r="D144" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E144" s="19"/>
+      <c r="F144" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G144" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H144" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I144" s="17"/>
+      <c r="J144" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" s="8" customFormat="1" ht="16.5">
+      <c r="A145" s="8">
+        <v>144</v>
+      </c>
+      <c r="B145" s="19">
+        <v>19</v>
+      </c>
+      <c r="C145" s="19">
+        <v>8</v>
+      </c>
+      <c r="D145" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E145" s="19"/>
+      <c r="F145" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="G145" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H145" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="I145" s="17"/>
+      <c r="J145" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" s="8" customFormat="1">
+      <c r="A146" s="8">
+        <v>145</v>
+      </c>
+      <c r="B146" s="22">
+        <v>20</v>
+      </c>
+      <c r="C146" s="22">
+        <v>1</v>
+      </c>
+      <c r="D146" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E146" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="F146" s="24"/>
+      <c r="G146" s="24"/>
+      <c r="H146" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I146" s="21"/>
+      <c r="J146" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" s="8" customFormat="1">
+      <c r="A147" s="8">
+        <v>146</v>
+      </c>
+      <c r="B147" s="22">
+        <v>20</v>
+      </c>
+      <c r="C147" s="22">
+        <v>2</v>
+      </c>
+      <c r="D147" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E147" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="F147" s="24"/>
+      <c r="G147" s="24"/>
+      <c r="H147" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I147" s="21"/>
+      <c r="J147" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" s="8" customFormat="1">
+      <c r="A148" s="8">
+        <v>147</v>
+      </c>
+      <c r="B148" s="22">
+        <v>20</v>
+      </c>
+      <c r="C148" s="22">
+        <v>3</v>
+      </c>
+      <c r="D148" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E148" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="F148" s="24"/>
+      <c r="G148" s="24"/>
+      <c r="H148" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I148" s="21"/>
+      <c r="J148" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" s="8" customFormat="1">
+      <c r="A149" s="8">
+        <v>148</v>
+      </c>
+      <c r="B149" s="22">
+        <v>20</v>
+      </c>
+      <c r="C149" s="22">
+        <v>4</v>
+      </c>
+      <c r="D149" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E149" s="22"/>
+      <c r="F149" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G149" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H149" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I149" s="21"/>
+      <c r="J149" s="21"/>
+    </row>
+    <row r="150" spans="1:12" s="8" customFormat="1">
+      <c r="A150" s="8">
+        <v>149</v>
+      </c>
+      <c r="B150" s="22">
+        <v>20</v>
+      </c>
+      <c r="C150" s="22">
+        <v>5</v>
+      </c>
+      <c r="D150" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E150" s="22"/>
+      <c r="F150" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G150" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H150" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="I150" s="21"/>
+      <c r="J150" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" s="8" customFormat="1">
+      <c r="A151" s="8">
+        <v>150</v>
+      </c>
+      <c r="B151" s="22">
+        <v>20</v>
+      </c>
+      <c r="C151" s="22">
+        <v>6</v>
+      </c>
+      <c r="D151" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E151" s="22"/>
+      <c r="F151" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G151" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="H151" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I151" s="21"/>
+      <c r="J151" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" s="8" customFormat="1">
+      <c r="A152" s="8">
+        <v>151</v>
+      </c>
+      <c r="B152" s="22">
+        <v>20</v>
+      </c>
+      <c r="C152" s="22">
+        <v>7</v>
+      </c>
+      <c r="D152" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E152" s="22"/>
+      <c r="F152" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G152" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H152" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="I152" s="21"/>
+      <c r="J152" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" s="8" customFormat="1">
+      <c r="A153" s="8">
+        <v>152</v>
+      </c>
+      <c r="B153" s="22">
+        <v>20</v>
+      </c>
+      <c r="C153" s="22">
+        <v>8</v>
+      </c>
+      <c r="D153" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E153" s="22"/>
+      <c r="F153" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G153" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="H153" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I153" s="21"/>
+      <c r="J153" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="9"/>

--- a/config_1.19/activity_exchange_server.xlsx
+++ b/config_1.19/activity_exchange_server.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="245">
   <si>
     <t>id|</t>
   </si>
@@ -1140,6 +1140,122 @@
   </si>
   <si>
     <t>10,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fclb_gong","prop_fclb_xi",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fclb_fa","prop_fclb_cai",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fclb_gong","prop_fclb_xi","prop_fclb_fa","prop_fclb_cai",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--免费--恭喜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--免费--发财</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--免费--恭喜发财</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_free_001</t>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,</t>
+  </si>
+  <si>
+    <t>1,1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--V1V7--恭喜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--V1V7--发财</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--V1V7--恭喜发财</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--V8V12--恭喜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--V8V12--发财</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--V8V12--恭喜发财</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v1v7_001</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v8v12_001</t>
+  </si>
+  <si>
+    <t>1,1,1,1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3500000,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1226,7 +1342,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1254,6 +1370,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1297,7 +1425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1418,6 +1546,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1698,19 +1874,20 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="23.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.375" style="4" customWidth="1"/>
     <col min="3" max="3" width="21.125" style="4" customWidth="1"/>
     <col min="4" max="6" width="18.625" style="4" customWidth="1"/>
-    <col min="7" max="8" width="27.25" customWidth="1"/>
+    <col min="7" max="7" width="53.375" customWidth="1"/>
+    <col min="8" max="8" width="27.25" style="52" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
-    <col min="10" max="10" width="19.375" customWidth="1"/>
+    <col min="10" max="10" width="19.375" style="52" customWidth="1"/>
     <col min="11" max="11" width="13.375" style="4" customWidth="1"/>
     <col min="12" max="12" width="33" style="4" customWidth="1"/>
     <col min="13" max="14" width="20.375" style="4" customWidth="1"/>
@@ -2355,10 +2532,10 @@
         <v>206</v>
       </c>
       <c r="C20" s="21">
-        <v>1610409600</v>
+        <v>1611014400</v>
       </c>
       <c r="D20" s="21">
-        <v>1610985599</v>
+        <v>1611590399</v>
       </c>
       <c r="G20" s="25" t="s">
         <v>189</v>
@@ -2384,10 +2561,10 @@
         <v>207</v>
       </c>
       <c r="C21" s="21">
-        <v>1610409600</v>
+        <v>1611014400</v>
       </c>
       <c r="D21" s="21">
-        <v>1610985599</v>
+        <v>1611590399</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -2407,69 +2584,271 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="16.5">
-      <c r="A22" s="1"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-    </row>
-    <row r="23" spans="1:16" ht="16.5">
-      <c r="A23" s="1"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-    </row>
-    <row r="24" spans="1:16" ht="16.5">
-      <c r="A24" s="1"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="1"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="B28" s="6"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="B29" s="6"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="1"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+    <row r="22" spans="1:16" s="48" customFormat="1" ht="16.5">
+      <c r="A22" s="45">
+        <v>21</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="45">
+        <v>1611014400</v>
+      </c>
+      <c r="D22" s="45">
+        <v>1611590399</v>
+      </c>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="H22" s="51">
+        <v>1</v>
+      </c>
+      <c r="I22" s="47"/>
+      <c r="J22" s="51">
+        <v>21</v>
+      </c>
+      <c r="K22" s="48">
+        <v>1</v>
+      </c>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+    </row>
+    <row r="23" spans="1:16" s="48" customFormat="1" ht="16.5">
+      <c r="A23" s="45">
+        <v>22</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="45">
+        <v>1611014400</v>
+      </c>
+      <c r="D23" s="45">
+        <v>1611590399</v>
+      </c>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="H23" s="51">
+        <v>1</v>
+      </c>
+      <c r="I23" s="47"/>
+      <c r="J23" s="51">
+        <v>22</v>
+      </c>
+      <c r="K23" s="48">
+        <v>1</v>
+      </c>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+    </row>
+    <row r="24" spans="1:16" s="48" customFormat="1" ht="16.5">
+      <c r="A24" s="45">
+        <v>23</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="45">
+        <v>1611014400</v>
+      </c>
+      <c r="D24" s="45">
+        <v>1611590399</v>
+      </c>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="H24" s="51">
+        <v>1</v>
+      </c>
+      <c r="I24" s="47"/>
+      <c r="J24" s="51">
+        <v>23</v>
+      </c>
+      <c r="K24" s="48">
+        <v>1</v>
+      </c>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+    </row>
+    <row r="25" spans="1:16" s="56" customFormat="1">
+      <c r="A25" s="56">
+        <v>24</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="58">
+        <v>1611014400</v>
+      </c>
+      <c r="D25" s="58">
+        <v>1611590399</v>
+      </c>
+      <c r="G25" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="H25" s="60">
+        <v>1</v>
+      </c>
+      <c r="I25" s="59"/>
+      <c r="J25" s="60">
+        <v>24</v>
+      </c>
+      <c r="K25" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="56" customFormat="1">
+      <c r="A26" s="56">
+        <v>25</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" s="58">
+        <v>1611014400</v>
+      </c>
+      <c r="D26" s="58">
+        <v>1611590399</v>
+      </c>
+      <c r="G26" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="H26" s="60">
+        <v>1</v>
+      </c>
+      <c r="I26" s="59"/>
+      <c r="J26" s="60">
+        <v>25</v>
+      </c>
+      <c r="K26" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="56" customFormat="1">
+      <c r="A27" s="58">
+        <v>26</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="58">
+        <v>1611014400</v>
+      </c>
+      <c r="D27" s="58">
+        <v>1611590399</v>
+      </c>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="H27" s="60">
+        <v>1</v>
+      </c>
+      <c r="I27" s="59"/>
+      <c r="J27" s="60">
+        <v>26</v>
+      </c>
+      <c r="K27" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="48" customFormat="1">
+      <c r="A28" s="48">
+        <v>27</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="C28" s="45">
+        <v>1611014400</v>
+      </c>
+      <c r="D28" s="45">
+        <v>1611590399</v>
+      </c>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="H28" s="51">
+        <v>1</v>
+      </c>
+      <c r="I28" s="47"/>
+      <c r="J28" s="51">
+        <v>27</v>
+      </c>
+      <c r="K28" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="48" customFormat="1">
+      <c r="A29" s="48">
+        <v>28</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="45">
+        <v>1611014400</v>
+      </c>
+      <c r="D29" s="45">
+        <v>1611590399</v>
+      </c>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="H29" s="51">
+        <v>1</v>
+      </c>
+      <c r="I29" s="47"/>
+      <c r="J29" s="51">
+        <v>28</v>
+      </c>
+      <c r="K29" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="48" customFormat="1">
+      <c r="A30" s="45">
+        <v>29</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="C30" s="45">
+        <v>1611014400</v>
+      </c>
+      <c r="D30" s="45">
+        <v>1611590399</v>
+      </c>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="H30" s="51">
+        <v>1</v>
+      </c>
+      <c r="I30" s="47"/>
+      <c r="J30" s="51">
+        <v>29</v>
+      </c>
+      <c r="K30" s="48">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1"/>
-      <c r="B31" s="3"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2477,7 +2856,6 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1"/>
-      <c r="B32" s="3"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2789,10 +3167,10 @@
   <dimension ref="A1:M179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B119" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F153" sqref="F153"/>
+      <selection pane="bottomRight" activeCell="G162" sqref="G162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6657,7 +7035,7 @@
       </c>
       <c r="E149" s="22"/>
       <c r="F149" s="24" t="s">
-        <v>42</v>
+        <v>222</v>
       </c>
       <c r="G149" s="24" t="s">
         <v>103</v>
@@ -6781,112 +7159,264 @@
       </c>
     </row>
     <row r="154" spans="1:12">
-      <c r="A154" s="9"/>
-      <c r="B154" s="12"/>
-      <c r="C154" s="12"/>
-      <c r="D154" s="9"/>
-      <c r="E154" s="12"/>
-      <c r="F154" s="14"/>
-      <c r="G154" s="14"/>
-      <c r="H154" s="12"/>
+      <c r="A154" s="8">
+        <v>153</v>
+      </c>
+      <c r="B154" s="53">
+        <v>21</v>
+      </c>
+      <c r="C154" s="53">
+        <v>1</v>
+      </c>
+      <c r="D154" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="E154" s="53"/>
+      <c r="F154" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="G154" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="H154" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="I154" s="45"/>
+      <c r="J154" s="45">
+        <v>9999</v>
+      </c>
     </row>
     <row r="155" spans="1:12">
-      <c r="A155" s="9"/>
-      <c r="B155" s="12"/>
-      <c r="C155" s="12"/>
-      <c r="D155" s="9"/>
-      <c r="E155" s="12"/>
-      <c r="F155" s="14"/>
-      <c r="G155" s="14"/>
-      <c r="H155" s="12"/>
+      <c r="A155" s="8">
+        <v>154</v>
+      </c>
+      <c r="B155" s="53">
+        <v>22</v>
+      </c>
+      <c r="C155" s="53">
+        <v>1</v>
+      </c>
+      <c r="D155" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="E155" s="53"/>
+      <c r="F155" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="G155" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="H155" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="I155" s="45"/>
+      <c r="J155" s="45">
+        <v>9999</v>
+      </c>
     </row>
     <row r="156" spans="1:12">
-      <c r="A156" s="9"/>
-      <c r="B156" s="12"/>
-      <c r="C156" s="12"/>
-      <c r="D156" s="9"/>
-      <c r="E156" s="12"/>
-      <c r="F156" s="14"/>
-      <c r="G156" s="14"/>
-      <c r="H156" s="12"/>
+      <c r="A156" s="8">
+        <v>155</v>
+      </c>
+      <c r="B156" s="53">
+        <v>23</v>
+      </c>
+      <c r="C156" s="53">
+        <v>1</v>
+      </c>
+      <c r="D156" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="E156" s="53"/>
+      <c r="F156" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="G156" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="H156" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="I156" s="45"/>
+      <c r="J156" s="45">
+        <v>9999</v>
+      </c>
     </row>
     <row r="157" spans="1:12">
-      <c r="A157" s="9"/>
-      <c r="B157" s="12"/>
-      <c r="C157" s="12"/>
-      <c r="D157" s="9"/>
-      <c r="E157" s="12"/>
-      <c r="F157" s="14"/>
-      <c r="G157" s="14"/>
-      <c r="H157" s="12"/>
+      <c r="A157" s="8">
+        <v>156</v>
+      </c>
+      <c r="B157" s="62">
+        <v>24</v>
+      </c>
+      <c r="C157" s="62">
+        <v>1</v>
+      </c>
+      <c r="D157" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="E157" s="62"/>
+      <c r="F157" s="64" t="s">
+        <v>223</v>
+      </c>
+      <c r="G157" s="64" t="s">
+        <v>225</v>
+      </c>
+      <c r="H157" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="I157" s="58"/>
+      <c r="J157" s="58">
+        <v>9999</v>
+      </c>
     </row>
     <row r="158" spans="1:12">
-      <c r="A158" s="9"/>
-      <c r="B158" s="12"/>
-      <c r="C158" s="12"/>
-      <c r="D158" s="9"/>
-      <c r="E158" s="12"/>
-      <c r="F158" s="14"/>
-      <c r="G158" s="14"/>
-      <c r="H158" s="12"/>
-      <c r="I158" s="8"/>
-      <c r="J158" s="8"/>
+      <c r="A158" s="8">
+        <v>157</v>
+      </c>
+      <c r="B158" s="62">
+        <v>25</v>
+      </c>
+      <c r="C158" s="62">
+        <v>1</v>
+      </c>
+      <c r="D158" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="E158" s="62"/>
+      <c r="F158" s="64" t="s">
+        <v>223</v>
+      </c>
+      <c r="G158" s="64" t="s">
+        <v>240</v>
+      </c>
+      <c r="H158" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="I158" s="58"/>
+      <c r="J158" s="58">
+        <v>9999</v>
+      </c>
       <c r="K158" s="8"/>
       <c r="L158" s="8"/>
     </row>
     <row r="159" spans="1:12">
-      <c r="A159" s="9"/>
-      <c r="B159" s="12"/>
-      <c r="C159" s="12"/>
-      <c r="D159" s="9"/>
-      <c r="E159" s="12"/>
-      <c r="F159" s="14"/>
-      <c r="G159" s="14"/>
-      <c r="H159" s="12"/>
-      <c r="I159" s="8"/>
-      <c r="J159" s="8"/>
+      <c r="A159" s="8">
+        <v>158</v>
+      </c>
+      <c r="B159" s="62">
+        <v>26</v>
+      </c>
+      <c r="C159" s="62">
+        <v>1</v>
+      </c>
+      <c r="D159" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="E159" s="62"/>
+      <c r="F159" s="64" t="s">
+        <v>223</v>
+      </c>
+      <c r="G159" s="64" t="s">
+        <v>241</v>
+      </c>
+      <c r="H159" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="I159" s="58"/>
+      <c r="J159" s="58">
+        <v>9999</v>
+      </c>
       <c r="K159" s="8"/>
       <c r="L159" s="8"/>
     </row>
     <row r="160" spans="1:12">
-      <c r="A160" s="9"/>
-      <c r="B160" s="12"/>
-      <c r="C160" s="12"/>
-      <c r="D160" s="9"/>
-      <c r="E160" s="12"/>
-      <c r="F160" s="14"/>
-      <c r="G160" s="14"/>
-      <c r="H160" s="12"/>
-      <c r="I160" s="8"/>
-      <c r="J160" s="8"/>
+      <c r="A160" s="8">
+        <v>159</v>
+      </c>
+      <c r="B160" s="53">
+        <v>27</v>
+      </c>
+      <c r="C160" s="53">
+        <v>1</v>
+      </c>
+      <c r="D160" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="E160" s="53"/>
+      <c r="F160" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="G160" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="H160" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="I160" s="45"/>
+      <c r="J160" s="45">
+        <v>9999</v>
+      </c>
       <c r="K160" s="8"/>
       <c r="L160" s="8"/>
     </row>
     <row r="161" spans="1:12">
-      <c r="A161" s="9"/>
-      <c r="B161" s="12"/>
-      <c r="C161" s="12"/>
-      <c r="D161" s="9"/>
-      <c r="E161" s="12"/>
-      <c r="F161" s="14"/>
-      <c r="G161" s="14"/>
-      <c r="H161" s="12"/>
-      <c r="I161" s="8"/>
-      <c r="J161" s="8"/>
+      <c r="A161" s="8">
+        <v>160</v>
+      </c>
+      <c r="B161" s="53">
+        <v>28</v>
+      </c>
+      <c r="C161" s="53">
+        <v>1</v>
+      </c>
+      <c r="D161" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="E161" s="53"/>
+      <c r="F161" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="G161" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="H161" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="I161" s="45"/>
+      <c r="J161" s="45">
+        <v>9999</v>
+      </c>
       <c r="K161" s="8"/>
       <c r="L161" s="8"/>
     </row>
     <row r="162" spans="1:12">
-      <c r="A162" s="9"/>
-      <c r="B162" s="12"/>
-      <c r="C162" s="12"/>
-      <c r="D162" s="9"/>
-      <c r="E162" s="12"/>
-      <c r="F162" s="14"/>
-      <c r="G162" s="14"/>
-      <c r="H162" s="12"/>
-      <c r="I162" s="8"/>
-      <c r="J162" s="8"/>
+      <c r="A162" s="8">
+        <v>161</v>
+      </c>
+      <c r="B162" s="53">
+        <v>29</v>
+      </c>
+      <c r="C162" s="53">
+        <v>1</v>
+      </c>
+      <c r="D162" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="E162" s="53"/>
+      <c r="F162" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="G162" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="H162" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="I162" s="45"/>
+      <c r="J162" s="45">
+        <v>9999</v>
+      </c>
       <c r="K162" s="8"/>
       <c r="L162" s="8"/>
     </row>
@@ -6894,7 +7424,6 @@
       <c r="A163" s="9"/>
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
-      <c r="D163" s="9"/>
       <c r="E163" s="12"/>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>

--- a/config_1.19/activity_exchange_server.xlsx
+++ b/config_1.19/activity_exchange_server.xlsx
@@ -1874,8 +1874,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3167,10 +3167,10 @@
   <dimension ref="A1:M179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B131" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G162" sqref="G162"/>
+      <selection pane="bottomRight" activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6298,25 +6298,24 @@
       <c r="A122" s="8">
         <v>121</v>
       </c>
-      <c r="B122" s="19">
+      <c r="B122" s="31">
         <v>17</v>
       </c>
-      <c r="C122" s="19">
-        <v>1</v>
-      </c>
-      <c r="D122" s="34" t="s">
+      <c r="C122" s="31">
+        <v>1</v>
+      </c>
+      <c r="D122" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E122" s="19" t="s">
+      <c r="E122" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="F122" s="20"/>
-      <c r="G122" s="20"/>
-      <c r="H122" s="20" t="s">
+      <c r="F122" s="33"/>
+      <c r="G122" s="33"/>
+      <c r="H122" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="I122" s="17"/>
-      <c r="J122" s="17">
+      <c r="J122" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6324,25 +6323,24 @@
       <c r="A123" s="8">
         <v>122</v>
       </c>
-      <c r="B123" s="19">
+      <c r="B123" s="31">
         <v>17</v>
       </c>
-      <c r="C123" s="19">
+      <c r="C123" s="31">
         <v>2</v>
       </c>
-      <c r="D123" s="34" t="s">
+      <c r="D123" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E123" s="19" t="s">
+      <c r="E123" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="F123" s="20"/>
-      <c r="G123" s="20"/>
-      <c r="H123" s="20" t="s">
+      <c r="F123" s="33"/>
+      <c r="G123" s="33"/>
+      <c r="H123" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="I123" s="17"/>
-      <c r="J123" s="17">
+      <c r="J123" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6350,25 +6348,23 @@
       <c r="A124" s="8">
         <v>123</v>
       </c>
-      <c r="B124" s="19">
+      <c r="B124" s="31">
         <v>17</v>
       </c>
-      <c r="C124" s="19">
+      <c r="C124" s="31">
         <v>3</v>
       </c>
-      <c r="D124" s="34" t="s">
+      <c r="D124" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E124" s="19" t="s">
+      <c r="E124" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="F124" s="17"/>
-      <c r="G124" s="20"/>
-      <c r="H124" s="20" t="s">
+      <c r="G124" s="33"/>
+      <c r="H124" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="I124" s="17"/>
-      <c r="J124" s="17">
+      <c r="J124" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6376,53 +6372,50 @@
       <c r="A125" s="8">
         <v>124</v>
       </c>
-      <c r="B125" s="19">
+      <c r="B125" s="31">
         <v>17</v>
       </c>
-      <c r="C125" s="19">
+      <c r="C125" s="31">
         <v>4</v>
       </c>
-      <c r="D125" s="34" t="s">
+      <c r="D125" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E125" s="19"/>
-      <c r="F125" s="20" t="s">
+      <c r="E125" s="31"/>
+      <c r="F125" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G125" s="20" t="s">
+      <c r="G125" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H125" s="20" t="s">
+      <c r="H125" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="I125" s="17"/>
-      <c r="J125" s="17"/>
     </row>
     <row r="126" spans="1:10" s="8" customFormat="1" ht="16.5">
       <c r="A126" s="8">
         <v>125</v>
       </c>
-      <c r="B126" s="19">
+      <c r="B126" s="31">
         <v>17</v>
       </c>
-      <c r="C126" s="19">
+      <c r="C126" s="31">
         <v>5</v>
       </c>
-      <c r="D126" s="34" t="s">
+      <c r="D126" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E126" s="19"/>
-      <c r="F126" s="41" t="s">
+      <c r="E126" s="31"/>
+      <c r="F126" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="G126" s="20" t="s">
+      <c r="G126" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="H126" s="18" t="s">
+      <c r="H126" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="I126" s="17"/>
-      <c r="J126" s="17">
+      <c r="J126" s="8">
         <v>3</v>
       </c>
     </row>
@@ -6430,27 +6423,26 @@
       <c r="A127" s="8">
         <v>126</v>
       </c>
-      <c r="B127" s="19">
+      <c r="B127" s="31">
         <v>17</v>
       </c>
-      <c r="C127" s="19">
+      <c r="C127" s="31">
         <v>6</v>
       </c>
-      <c r="D127" s="34" t="s">
+      <c r="D127" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E127" s="19"/>
-      <c r="F127" s="41" t="s">
+      <c r="E127" s="31"/>
+      <c r="F127" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="G127" s="20" t="s">
+      <c r="G127" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="H127" s="18" t="s">
+      <c r="H127" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="I127" s="17"/>
-      <c r="J127" s="17">
+      <c r="J127" s="8">
         <v>2</v>
       </c>
     </row>
@@ -6458,27 +6450,26 @@
       <c r="A128" s="8">
         <v>127</v>
       </c>
-      <c r="B128" s="19">
+      <c r="B128" s="31">
         <v>17</v>
       </c>
-      <c r="C128" s="19">
+      <c r="C128" s="31">
         <v>7</v>
       </c>
-      <c r="D128" s="34" t="s">
+      <c r="D128" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E128" s="19"/>
-      <c r="F128" s="20" t="s">
+      <c r="E128" s="31"/>
+      <c r="F128" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G128" s="20" t="s">
+      <c r="G128" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H128" s="18" t="s">
+      <c r="H128" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="I128" s="17"/>
-      <c r="J128" s="17">
+      <c r="J128" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6486,27 +6477,26 @@
       <c r="A129" s="8">
         <v>128</v>
       </c>
-      <c r="B129" s="19">
+      <c r="B129" s="31">
         <v>17</v>
       </c>
-      <c r="C129" s="19">
+      <c r="C129" s="31">
         <v>8</v>
       </c>
-      <c r="D129" s="34" t="s">
+      <c r="D129" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E129" s="19"/>
-      <c r="F129" s="41" t="s">
+      <c r="E129" s="31"/>
+      <c r="F129" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="G129" s="20" t="s">
+      <c r="G129" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="H129" s="20" t="s">
+      <c r="H129" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I129" s="17"/>
-      <c r="J129" s="17">
+      <c r="J129" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6514,25 +6504,24 @@
       <c r="A130" s="8">
         <v>129</v>
       </c>
-      <c r="B130" s="22">
+      <c r="B130" s="31">
         <v>18</v>
       </c>
-      <c r="C130" s="22">
-        <v>1</v>
-      </c>
-      <c r="D130" s="23" t="s">
+      <c r="C130" s="31">
+        <v>1</v>
+      </c>
+      <c r="D130" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E130" s="22" t="s">
+      <c r="E130" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="F130" s="24"/>
-      <c r="G130" s="24"/>
-      <c r="H130" s="24" t="s">
+      <c r="F130" s="33"/>
+      <c r="G130" s="33"/>
+      <c r="H130" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="I130" s="21"/>
-      <c r="J130" s="21">
+      <c r="J130" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6540,25 +6529,24 @@
       <c r="A131" s="8">
         <v>130</v>
       </c>
-      <c r="B131" s="22">
+      <c r="B131" s="31">
         <v>18</v>
       </c>
-      <c r="C131" s="22">
+      <c r="C131" s="31">
         <v>2</v>
       </c>
-      <c r="D131" s="23" t="s">
+      <c r="D131" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E131" s="22" t="s">
+      <c r="E131" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="F131" s="24"/>
-      <c r="G131" s="24"/>
-      <c r="H131" s="24" t="s">
+      <c r="F131" s="33"/>
+      <c r="G131" s="33"/>
+      <c r="H131" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="I131" s="21"/>
-      <c r="J131" s="21">
+      <c r="J131" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6566,25 +6554,24 @@
       <c r="A132" s="8">
         <v>131</v>
       </c>
-      <c r="B132" s="22">
+      <c r="B132" s="31">
         <v>18</v>
       </c>
-      <c r="C132" s="22">
+      <c r="C132" s="31">
         <v>3</v>
       </c>
-      <c r="D132" s="23" t="s">
+      <c r="D132" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E132" s="22" t="s">
+      <c r="E132" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="F132" s="24"/>
-      <c r="G132" s="24"/>
-      <c r="H132" s="24" t="s">
+      <c r="F132" s="33"/>
+      <c r="G132" s="33"/>
+      <c r="H132" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="I132" s="21"/>
-      <c r="J132" s="21">
+      <c r="J132" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6592,53 +6579,50 @@
       <c r="A133" s="8">
         <v>132</v>
       </c>
-      <c r="B133" s="22">
+      <c r="B133" s="31">
         <v>18</v>
       </c>
-      <c r="C133" s="22">
+      <c r="C133" s="31">
         <v>4</v>
       </c>
-      <c r="D133" s="23" t="s">
+      <c r="D133" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E133" s="22"/>
-      <c r="F133" s="24" t="s">
+      <c r="E133" s="31"/>
+      <c r="F133" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G133" s="24" t="s">
+      <c r="G133" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H133" s="24" t="s">
+      <c r="H133" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="I133" s="21"/>
-      <c r="J133" s="21"/>
     </row>
     <row r="134" spans="1:10" s="8" customFormat="1">
       <c r="A134" s="8">
         <v>133</v>
       </c>
-      <c r="B134" s="22">
+      <c r="B134" s="31">
         <v>18</v>
       </c>
-      <c r="C134" s="22">
+      <c r="C134" s="31">
         <v>5</v>
       </c>
-      <c r="D134" s="23" t="s">
+      <c r="D134" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E134" s="22"/>
-      <c r="F134" s="24" t="s">
+      <c r="E134" s="31"/>
+      <c r="F134" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G134" s="24" t="s">
+      <c r="G134" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H134" s="25" t="s">
+      <c r="H134" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="I134" s="21"/>
-      <c r="J134" s="21">
+      <c r="J134" s="8">
         <v>3</v>
       </c>
     </row>
@@ -6646,27 +6630,26 @@
       <c r="A135" s="8">
         <v>134</v>
       </c>
-      <c r="B135" s="22">
+      <c r="B135" s="31">
         <v>18</v>
       </c>
-      <c r="C135" s="22">
+      <c r="C135" s="31">
         <v>6</v>
       </c>
-      <c r="D135" s="23" t="s">
+      <c r="D135" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E135" s="22"/>
-      <c r="F135" s="25" t="s">
+      <c r="E135" s="31"/>
+      <c r="F135" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="G135" s="24" t="s">
+      <c r="G135" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="H135" s="25" t="s">
+      <c r="H135" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="I135" s="21"/>
-      <c r="J135" s="21">
+      <c r="J135" s="8">
         <v>2</v>
       </c>
     </row>
@@ -6674,27 +6657,26 @@
       <c r="A136" s="8">
         <v>135</v>
       </c>
-      <c r="B136" s="22">
+      <c r="B136" s="31">
         <v>18</v>
       </c>
-      <c r="C136" s="22">
+      <c r="C136" s="31">
         <v>7</v>
       </c>
-      <c r="D136" s="23" t="s">
+      <c r="D136" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E136" s="22"/>
-      <c r="F136" s="24" t="s">
+      <c r="E136" s="31"/>
+      <c r="F136" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G136" s="24" t="s">
+      <c r="G136" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H136" s="25" t="s">
+      <c r="H136" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="I136" s="21"/>
-      <c r="J136" s="21">
+      <c r="J136" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6702,27 +6684,26 @@
       <c r="A137" s="8">
         <v>136</v>
       </c>
-      <c r="B137" s="22">
+      <c r="B137" s="31">
         <v>18</v>
       </c>
-      <c r="C137" s="22">
+      <c r="C137" s="31">
         <v>8</v>
       </c>
-      <c r="D137" s="23" t="s">
+      <c r="D137" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E137" s="22"/>
-      <c r="F137" s="25" t="s">
+      <c r="E137" s="31"/>
+      <c r="F137" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="G137" s="24" t="s">
+      <c r="G137" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="H137" s="24" t="s">
+      <c r="H137" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="I137" s="21"/>
-      <c r="J137" s="21">
+      <c r="J137" s="8">
         <v>1</v>
       </c>
     </row>
